--- a/manualSteps/PreDeploymentSteps.xlsx
+++ b/manualSteps/PreDeploymentSteps.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUKU\NCT Project\sourcecode_sample\manualSteps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\css116284\Documents\backup\Salesforce\manualSteps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A6F8A7B1-41C8-48ED-8106-454F5C0CCFCA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D47E182E-B7AB-4CC6-82ED-6587F0696742}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="555" yWindow="555" windowWidth="25035" windowHeight="15780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,9 +24,98 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+  <si>
+    <t>PreDeployment Manual Steps</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                 Errors</t>
+  </si>
+  <si>
+    <t>Sharing Settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go to setup </t>
+  </si>
+  <si>
+    <t>click on Sharing settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account and contact should be private- Default External Access </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account is Public Read/Write and contactis private-Default Internal Access </t>
+  </si>
+  <si>
+    <t xml:space="preserve">opportunityt is Public Read/Write- Default internal Access and opportunity is private-Default Internal Access </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to SetUp
+2. Go to Sharing Settings from Setup menu
+3. Edit Sharing Settings
+4. Set the Contact Sharing setting from Controlled by Parent to Private.(Default External Access)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.Field is not writeable: ContactShare.ContactId
+2Field is not writeable: ContactShare.ContactAccessLevel
+3.Field is not writeable: ContactShare.UserOrGroupId
+4.DML operation Insert not allowed on List&lt;ContactShare&gt;
+</t>
+  </si>
+  <si>
+    <t>click on the button for Account</t>
+  </si>
+  <si>
+    <t>Account Contact relation Object enable</t>
+  </si>
+  <si>
+    <t>search for "Account settings"</t>
+  </si>
+  <si>
+    <t>check the checkbox "Allow users to relate a contact to multiple accounts"</t>
+  </si>
+  <si>
+    <t>Email Deliverability</t>
+  </si>
+  <si>
+    <t>click on "Deliverability"</t>
+  </si>
+  <si>
+    <t>select the picklist(Access level) value as - All emails</t>
+  </si>
+  <si>
+    <t>click on Save.</t>
+  </si>
+  <si>
+    <t>Adding Pick list value in case object</t>
+  </si>
+  <si>
+    <t>Go to "Object Manager"</t>
+  </si>
+  <si>
+    <t>Quick find "Case"</t>
+  </si>
+  <si>
+    <t>Go to "Fields &amp; Relationships"</t>
+  </si>
+  <si>
+    <t>check for "case reason" picklist field</t>
+  </si>
+  <si>
+    <t>Add value "Volunteer De-Registration" in Pre-UAT</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -34,19 +123,107 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -55,8 +232,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,12 +609,166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5" customWidth="1"/>
+    <col min="2" max="2" width="86.75" customWidth="1"/>
+    <col min="3" max="3" width="62.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A21"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
